--- a/medicine/Psychotrope/Vosne-Romanée/Vosne-Romanée.xlsx
+++ b/medicine/Psychotrope/Vosne-Romanée/Vosne-Romanée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vosne-Roman%C3%A9e</t>
+          <t>Vosne-Romanée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Vosne-Romanée est une commune française située dans le département de la Côte-d'Or en région Bourgogne-Franche-Comté.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vosne-Roman%C3%A9e</t>
+          <t>Vosne-Romanée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Communes limitrophes
+          <t>Communes limitrophes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 </t>
         </is>
       </c>
@@ -525,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vosne-Roman%C3%A9e</t>
+          <t>Vosne-Romanée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,12 +563,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Typologie
-Vosne-Romanée est une commune rurale, car elle fait partie des communes peu ou très peu denses, au sens de la grille communale de densité de l'Insee[Note 1],[1],[2],[3].
-Par ailleurs la commune fait partie de l'aire d'attraction de Dijon, dont elle est une commune de la couronne[Note 2]. Cette aire, qui regroupe 333 communes, est catégorisée dans les aires de 200 000 à moins de 700 000 habitants[4],[5].
-Occupation des sols
-L'occupation des sols de la commune, telle qu'elle ressort de la base de données européenne d’occupation biophysique des sols Corine Land Cover (CLC), est marquée par l'importance des territoires agricoles (72,9 % en 2018), néanmoins en diminution par rapport à 1990 (76,6 %). La répartition détaillée en 2018 est la suivante : 
-cultures permanentes (57,6 %), zones urbanisées (11,6 %), milieux à végétation arbustive et/ou herbacée (9,7 %), terres arables (8,6 %), zones agricoles hétérogènes (6,5 %), forêts (5,9 %), prairies (0,2 %)[6]. L'évolution de l’occupation des sols de la commune et de ses infrastructures peut être observée sur les différentes représentations cartographiques du territoire : la carte de Cassini (XVIIIe siècle), la carte d'état-major (1820-1866) et les cartes ou photos aériennes de l'IGN pour la période actuelle (1950 à aujourd'hui)[Carte 1].
+          <t>Typologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vosne-Romanée est une commune rurale, car elle fait partie des communes peu ou très peu denses, au sens de la grille communale de densité de l'Insee[Note 1].
+Par ailleurs la commune fait partie de l'aire d'attraction de Dijon, dont elle est une commune de la couronne[Note 2]. Cette aire, qui regroupe 333 communes, est catégorisée dans les aires de 200 000 à moins de 700 000 habitants,.
 </t>
         </is>
       </c>
@@ -561,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vosne-Roman%C3%A9e</t>
+          <t>Vosne-Romanée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,12 +596,52 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Urbanisme</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Occupation des sols</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'occupation des sols de la commune, telle qu'elle ressort de la base de données européenne d’occupation biophysique des sols Corine Land Cover (CLC), est marquée par l'importance des territoires agricoles (72,9 % en 2018), néanmoins en diminution par rapport à 1990 (76,6 %). La répartition détaillée en 2018 est la suivante : 
+cultures permanentes (57,6 %), zones urbanisées (11,6 %), milieux à végétation arbustive et/ou herbacée (9,7 %), terres arables (8,6 %), zones agricoles hétérogènes (6,5 %), forêts (5,9 %), prairies (0,2 %). L'évolution de l’occupation des sols de la commune et de ses infrastructures peut être observée sur les différentes représentations cartographiques du territoire : la carte de Cassini (XVIIIe siècle), la carte d'état-major (1820-1866) et les cartes ou photos aériennes de l'IGN pour la période actuelle (1950 à aujourd'hui)[Carte 1].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vosne-Romanée</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vosne-Roman%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Toponymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Attestée sous la forme Villa que Vaona dicitur en 630 [7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Attestée sous la forme Villa que Vaona dicitur en 630 .
 Vosne devint Vosne-Romanée afin de faire profiter la commune de la renommée du cru élevé sur son territoire, le conseil municipal a demandé et obtenu l'adjonction du cru célèbre.
 Vosne : Vaona vient du gaulois *wadana (eau ), issu de pré-indo-européen *wed / *wod  de même sens, ou du gaulois vidumos (« forêt »).
 Romanée : du nom d'homme latin Romanus + acum.
@@ -589,39 +649,13 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Vosne-Roman%C3%A9e</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Vosne-Roman%C3%A9e</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Histoire</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Vosne-Roman%C3%A9e</t>
+          <t>Vosne-Romanée</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,16 +670,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Vignoble</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Commune viticole de la côte de Nuits sur la route des Grands Crus, les vignerons de Vosne-Romanée élèvent des crus parmi les plus réputés de Bourgogne, tel que les appellations vosne-romanée, la-grande-rue, la-tâche, richebourg, la-romanée, romanée-saint-vivant, et le prestigieux romanée-conti.
-Un petit calvaire érigé au bord de la route. Rien d'autre ne distingue le domaine de la Romanée-Conti. C'est pourtant là, sur 1,8 hectare, que naît le vin rouge le plus cher du monde. Très précisément entre Nuits-Saint-Georges et le Clos de Vougeot, sur un sol argileux planté de pinot noir par les moines de l'abbaye de Cîteaux et de Saint-Vivant de Vergy, au XVe siècle[8].
-</t>
-        </is>
-      </c>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -653,7 +683,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Vosne-Roman%C3%A9e</t>
+          <t>Vosne-Romanée</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -668,12 +698,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Politique et administration</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Commune viticole de la côte de Nuits sur la route des Grands Crus, les vignerons de Vosne-Romanée élèvent des crus parmi les plus réputés de Bourgogne, tel que les appellations vosne-romanée, la-grande-rue, la-tâche, richebourg, la-romanée, romanée-saint-vivant, et le prestigieux romanée-conti.
+Un petit calvaire érigé au bord de la route. Rien d'autre ne distingue le domaine de la Romanée-Conti. C'est pourtant là, sur 1,8 hectare, que naît le vin rouge le plus cher du monde. Très précisément entre Nuits-Saint-Georges et le Clos de Vougeot, sur un sol argileux planté de pinot noir par les moines de l'abbaye de Cîteaux et de Saint-Vivant de Vergy, au XVe siècle.
 </t>
         </is>
       </c>
@@ -684,7 +717,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Vosne-Roman%C3%A9e</t>
+          <t>Vosne-Romanée</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -699,15 +732,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Démographie</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>L'évolution du nombre d'habitants est connue à travers les recensements de la population effectués dans la commune depuis 1793. Pour les communes de moins de 10 000 habitants, une enquête de recensement portant sur toute la population est réalisée tous les cinq ans, les populations légales des années intermédiaires étant quant à elles estimées par interpolation ou extrapolation[9]. Pour la commune, le premier recensement exhaustif entrant dans le cadre du nouveau dispositif a été réalisé en 2004[10].
-En 2021, la commune comptait 340 habitants[Note 3], en diminution de 5,56 % par rapport à 2015 (Côte-d'Or : +0,44 %, France hors Mayotte : +1,84 %).
-De 1962 à 1999 : population sans doubles comptes ; pour les dates suivantes : population municipale.(Sources : Ldh/EHESS/Cassini jusqu'en 1999[11] puis Insee à partir de 2006[12].)
-Histogramme de l'évolution démographique</t>
+          <t>Politique et administration</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
         </is>
       </c>
     </row>
@@ -717,7 +750,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Vosne-Roman%C3%A9e</t>
+          <t>Vosne-Romanée</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -732,22 +765,131 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Démographie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>L'évolution du nombre d'habitants est connue à travers les recensements de la population effectués dans la commune depuis 1793. Pour les communes de moins de 10 000 habitants, une enquête de recensement portant sur toute la population est réalisée tous les cinq ans, les populations légales des années intermédiaires étant quant à elles estimées par interpolation ou extrapolation. Pour la commune, le premier recensement exhaustif entrant dans le cadre du nouveau dispositif a été réalisé en 2004.
+En 2021, la commune comptait 340 habitants[Note 3], en diminution de 5,56 % par rapport à 2015 (Côte-d'Or : +0,44 %, France hors Mayotte : +1,84 %).
+De 1962 à 1999 : population sans doubles comptes ; pour les dates suivantes : population municipale.(Sources : Ldh/EHESS/Cassini jusqu'en 1999 puis Insee à partir de 2006.)
+Histogramme de l'évolution démographique</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Vosne-Romanée</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vosne-Roman%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Culture locale et patrimoine</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Lieux et monuments
-Maison dite Romane, rue Sainte-Barbe, datant du XVIe siècle, où se tint dit-on en 1607 un consistoire protestant.
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Lieux et monuments</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Maison dite Romane, rue Sainte-Barbe, datant du XVIe siècle, où se tint dit-on en 1607 un consistoire protestant.
 Les boiseries intérieures de l'église Saint-Martin ramenées à Vosne-Romanée par Dom Trouvé, dernier abbé de Cîteaux, où elles ornaient la salle des chapitres avant la Révolution.
 Le pavillon de la Goillotte, rue de la Goillotte, ancienne maison de chasse des ducs de Bourgogne, puis cuverie des princes de Conti.
 Château de Vosne au cœur du village, remanié au XIXe siècle.
-La cabotte du projet Hercules dans les hauteurs du vignoble de Vosne-Romanée.
-Protection de l'environnement
-La côte et les combes sont classés dans la Zone naturelle d'intérêt écologique, faunistique et floristique de type I de la Côte dijonnaise et font partie du site Natura 2000 de l'Arrière côte de Dijon et de Beaune.
-Honneurs
-L'astéroïde (262705) Vosne-Romanée porte son nom.
-Héraldique</t>
+La cabotte du projet Hercules dans les hauteurs du vignoble de Vosne-Romanée.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Vosne-Romanée</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vosne-Roman%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Culture locale et patrimoine</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection de l'environnement</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La côte et les combes sont classés dans la Zone naturelle d'intérêt écologique, faunistique et floristique de type I de la Côte dijonnaise et font partie du site Natura 2000 de l'Arrière côte de Dijon et de Beaune.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Vosne-Romanée</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vosne-Roman%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Culture locale et patrimoine</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Honneurs</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'astéroïde (262705) Vosne-Romanée porte son nom.
+</t>
         </is>
       </c>
     </row>
